--- a/workfile/锐安项目文档/bi/经营指标分析.xlsx
+++ b/workfile/锐安项目文档/bi/经营指标分析.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cloud\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allen\Desktop\workspace\workfile\锐安项目文档\bi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD782D9-E14E-4121-BCFA-41B28AA0573F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{792C1FF1-4CC5-4A14-9017-A3F1F62D8DFC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="合同总额分析" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="回款分析" sheetId="5" r:id="rId3"/>
     <sheet name="完工验收分析" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="72">
   <si>
     <t>合同总额可分析相关数据有合同总额，预计合同金额（从销售立项表中取数）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,11 +254,59 @@
     <t>2019年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>大项目二级立项对合同额进行排序即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同总额区间的分析： 数量，数量占比（待定），合同总额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漏斗图数据来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年度回款情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于部门同期都不要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同比分析只按总数对比，维度是季度和年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老系统立项报告中心，销售项目立项，是否签单，预计签单时间，转化率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年度趋势 ，同比按年度度总数分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滞后模块。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同总额对地区关注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -333,7 +380,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -372,6 +419,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -487,39 +535,39 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>95</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>207</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>116</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>54</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>62</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-501F-4170-B91A-AD8F5DD9F217}"/>
             </c:ext>
@@ -594,39 +642,39 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>200</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>83</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>168</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>160</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>144</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>203</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>186</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>61</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>69</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-501F-4170-B91A-AD8F5DD9F217}"/>
             </c:ext>
@@ -641,11 +689,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="509812472"/>
-        <c:axId val="509817392"/>
+        <c:axId val="1720083888"/>
+        <c:axId val="1809815424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="509812472"/>
+        <c:axId val="1720083888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -688,7 +736,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509817392"/>
+        <c:crossAx val="1809815424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -696,7 +744,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="509817392"/>
+        <c:axId val="1809815424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -747,7 +795,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509812472"/>
+        <c:crossAx val="1720083888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -802,14 +850,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -845,7 +893,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -859,6 +907,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>当季度剩余数预计完成数</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -936,21 +1010,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>116</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.799999999999997</c:v>
+                  <c:v>44.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.96</c:v>
+                  <c:v>8.8800000000000008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.48</c:v>
+                  <c:v>4.4400000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D694-4B8E-AA44-4F25C04D0C97}"/>
             </c:ext>
@@ -965,11 +1039,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="523434584"/>
-        <c:axId val="523434256"/>
+        <c:axId val="1809820864"/>
+        <c:axId val="1809821952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="523434584"/>
+        <c:axId val="1809820864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1012,7 +1086,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="523434256"/>
+        <c:crossAx val="1809821952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1020,7 +1094,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="523434256"/>
+        <c:axId val="1809821952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1071,7 +1145,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="523434584"/>
+        <c:crossAx val="1809820864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1127,7 +1201,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1166,6 +1240,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1271,39 +1346,39 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>78</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>112</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>154</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>199</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>155</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>199</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>152</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>170</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6F9A-4912-9858-9404971F9830}"/>
             </c:ext>
@@ -1378,39 +1453,39 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>74</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>196</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>146</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>93</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>156</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>62</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>94</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>126</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>187</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6F9A-4912-9858-9404971F9830}"/>
             </c:ext>
@@ -1426,8 +1501,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="604860176"/>
-        <c:axId val="604860832"/>
+        <c:axId val="1816681424"/>
+        <c:axId val="1816679792"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1503,40 +1578,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.0540540540540539</c:v>
+                  <c:v>0.72131147540983609</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5714285714285714</c:v>
+                  <c:v>1.0843373493975903</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0547945205479452</c:v>
+                  <c:v>1.3006993006993006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.139784946236559</c:v>
+                  <c:v>1.4339622641509433</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8392857142857144</c:v>
+                  <c:v>0.74358974358974361</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2115384615384615</c:v>
+                  <c:v>0.95876288659793818</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5</c:v>
+                  <c:v>1.4962406015037595</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.1170212765957448</c:v>
+                  <c:v>0.72839506172839508</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2063492063492063</c:v>
+                  <c:v>0.89268292682926831</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.90909090909090906</c:v>
+                  <c:v>0.57070707070707072</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-6F9A-4912-9858-9404971F9830}"/>
             </c:ext>
@@ -1552,11 +1627,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="605077920"/>
-        <c:axId val="605075952"/>
+        <c:axId val="1816681968"/>
+        <c:axId val="1816682512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="604860176"/>
+        <c:axId val="1816681424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1599,7 +1674,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="604860832"/>
+        <c:crossAx val="1816679792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1607,7 +1682,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="604860832"/>
+        <c:axId val="1816679792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1658,12 +1733,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="604860176"/>
+        <c:crossAx val="1816681424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="605075952"/>
+        <c:axId val="1816682512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1700,12 +1775,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="605077920"/>
+        <c:crossAx val="1816681968"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="605077920"/>
+        <c:axId val="1816681968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1715,7 +1790,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="605075952"/>
+        <c:crossAx val="1816682512"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1731,6 +1807,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1762,14 +1839,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1805,7 +1882,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1883,7 +1960,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20244432287398617"/>
+          <c:y val="0.31718305035811173"/>
+          <c:w val="0.6329429710962452"/>
+          <c:h val="0.32509144175193211"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
@@ -1934,15 +2021,15 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>149</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>84</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A798-45E8-8766-F58D37973F22}"/>
             </c:ext>
@@ -1994,15 +2081,15 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>128</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A798-45E8-8766-F58D37973F22}"/>
             </c:ext>
@@ -2018,11 +2105,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="604894864"/>
-        <c:axId val="604895192"/>
+        <c:axId val="1816685776"/>
+        <c:axId val="1816683600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="604894864"/>
+        <c:axId val="1816685776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2065,7 +2152,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="604895192"/>
+        <c:crossAx val="1816683600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2073,7 +2160,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="604895192"/>
+        <c:axId val="1816683600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2124,7 +2211,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="604894864"/>
+        <c:crossAx val="1816685776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2138,6 +2225,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2205,7 +2293,7 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -2244,6 +2332,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2341,21 +2430,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>161</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>152</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>112</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1369-4794-BB5E-1E48E63BA23F}"/>
             </c:ext>
@@ -2412,21 +2501,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>184</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>140</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>208</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>145</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1369-4794-BB5E-1E48E63BA23F}"/>
             </c:ext>
@@ -2442,11 +2531,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="603649840"/>
-        <c:axId val="603648200"/>
+        <c:axId val="1816685232"/>
+        <c:axId val="1816686320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="603649840"/>
+        <c:axId val="1816685232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2489,7 +2578,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="603648200"/>
+        <c:crossAx val="1816686320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2497,7 +2586,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="603648200"/>
+        <c:axId val="1816686320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2548,7 +2637,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="603649840"/>
+        <c:crossAx val="1816685232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2562,6 +2651,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2629,7 +2719,7 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -2668,6 +2758,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2730,7 +2821,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-C38F-49EB-9BB8-15B91FFCCDAB}"/>
               </c:ext>
@@ -2750,7 +2841,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-C38F-49EB-9BB8-15B91FFCCDAB}"/>
               </c:ext>
@@ -2777,15 +2868,15 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>76</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>184</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-C38F-49EB-9BB8-15B91FFCCDAB}"/>
             </c:ext>
@@ -2813,6 +2904,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2844,14 +2936,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2887,7 +2979,7 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -2926,6 +3018,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2988,7 +3081,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-A8A5-499A-B271-3E3F2C8DA2E9}"/>
               </c:ext>
@@ -3008,7 +3101,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-A8A5-499A-B271-3E3F2C8DA2E9}"/>
               </c:ext>
@@ -3028,7 +3121,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-A8A5-499A-B271-3E3F2C8DA2E9}"/>
               </c:ext>
@@ -3055,18 +3148,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>93</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>139</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>121</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-A8A5-499A-B271-3E3F2C8DA2E9}"/>
             </c:ext>
@@ -3094,6 +3187,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3125,14 +3219,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3168,7 +3262,7 @@
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -3207,6 +3301,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3269,7 +3364,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-D54E-47AD-B8D5-BAECF0F94890}"/>
               </c:ext>
@@ -3289,7 +3384,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-D54E-47AD-B8D5-BAECF0F94890}"/>
               </c:ext>
@@ -3316,15 +3411,15 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>162</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>188</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-D54E-47AD-B8D5-BAECF0F94890}"/>
             </c:ext>
@@ -3352,6 +3447,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3383,14 +3479,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3426,7 +3522,7 @@
 </file>
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -3465,6 +3561,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3527,7 +3624,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-3319-4505-8E51-F30252672849}"/>
               </c:ext>
@@ -3547,7 +3644,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-3319-4505-8E51-F30252672849}"/>
               </c:ext>
@@ -3574,15 +3671,15 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>128</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>69</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-3319-4505-8E51-F30252672849}"/>
             </c:ext>
@@ -3610,6 +3707,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3641,14 +3739,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3684,7 +3782,7 @@
 </file>
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -3698,6 +3796,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3775,21 +3874,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>154</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.199999999999996</c:v>
+                  <c:v>59.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.24</c:v>
+                  <c:v>11.88</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.62</c:v>
+                  <c:v>5.94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E548-4EF8-942E-E3FB4206AECB}"/>
             </c:ext>
@@ -3804,11 +3903,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="523434584"/>
-        <c:axId val="523434256"/>
+        <c:axId val="1817242736"/>
+        <c:axId val="1817236752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="523434584"/>
+        <c:axId val="1817242736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3851,7 +3950,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="523434256"/>
+        <c:crossAx val="1817236752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3859,7 +3958,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="523434256"/>
+        <c:axId val="1817236752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3910,7 +4009,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="523434584"/>
+        <c:crossAx val="1817242736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3966,7 +4065,7 @@
 </file>
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -4005,6 +4104,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4110,39 +4210,39 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>95</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>168</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>91</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>167</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>93</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>157</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>201</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>136</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>120</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-584E-4708-BE85-BC8FF82A636F}"/>
             </c:ext>
@@ -4217,39 +4317,39 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>140</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>139</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>172</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>86</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>148</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>77</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>191</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>52</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-584E-4708-BE85-BC8FF82A636F}"/>
             </c:ext>
@@ -4265,8 +4365,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="604860176"/>
-        <c:axId val="604860832"/>
+        <c:axId val="1817234576"/>
+        <c:axId val="1817238928"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4342,40 +4442,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.6785714285714286</c:v>
+                  <c:v>1.3884297520661157</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2086330935251799</c:v>
+                  <c:v>0.6402439024390244</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.52906976744186052</c:v>
+                  <c:v>3.2950819672131146</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5303030303030303</c:v>
+                  <c:v>0.40865384615384615</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.61052631578947369</c:v>
+                  <c:v>1.9879518072289157</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0813953488372092</c:v>
+                  <c:v>0.63725490196078427</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0608108108108107</c:v>
+                  <c:v>0.51231527093596063</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.6103896103896105</c:v>
+                  <c:v>0.99009900990099009</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.7120418848167539</c:v>
+                  <c:v>1.7746478873239437</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3076923076923075</c:v>
+                  <c:v>0.48514851485148514</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-584E-4708-BE85-BC8FF82A636F}"/>
             </c:ext>
@@ -4391,11 +4491,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="605077920"/>
-        <c:axId val="605075952"/>
+        <c:axId val="1817236208"/>
+        <c:axId val="1817243280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="604860176"/>
+        <c:axId val="1817234576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4438,7 +4538,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="604860832"/>
+        <c:crossAx val="1817238928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4446,7 +4546,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="604860832"/>
+        <c:axId val="1817238928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4497,12 +4597,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="604860176"/>
+        <c:crossAx val="1817234576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="605075952"/>
+        <c:axId val="1817243280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4539,12 +4639,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="605077920"/>
+        <c:crossAx val="1817236208"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="605077920"/>
+        <c:axId val="1817236208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4554,7 +4654,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="605075952"/>
+        <c:crossAx val="1817243280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4571,6 +4671,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4602,14 +4703,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4645,7 +4746,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -4772,15 +4873,15 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1111</c:v>
+                  <c:v>1239</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1329</c:v>
+                  <c:v>1266</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EB4F-4FCF-B246-97ADD5C54387}"/>
             </c:ext>
@@ -4795,11 +4896,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="509817720"/>
-        <c:axId val="509814440"/>
+        <c:axId val="1809812704"/>
+        <c:axId val="1809817600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="509817720"/>
+        <c:axId val="1809812704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4842,7 +4943,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509814440"/>
+        <c:crossAx val="1809817600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4850,7 +4951,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="509814440"/>
+        <c:axId val="1809817600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4901,7 +5002,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509817720"/>
+        <c:crossAx val="1809812704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4915,14 +5016,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4958,7 +5059,7 @@
 </file>
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -5087,15 +5188,15 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>58</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>176</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5504-418C-8CED-6474DF4A8307}"/>
             </c:ext>
@@ -5147,15 +5248,15 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>148</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5504-418C-8CED-6474DF4A8307}"/>
             </c:ext>
@@ -5171,11 +5272,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="604894864"/>
-        <c:axId val="604895192"/>
+        <c:axId val="1817231312"/>
+        <c:axId val="1817234032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="604894864"/>
+        <c:axId val="1817231312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5218,7 +5319,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="604895192"/>
+        <c:crossAx val="1817234032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5226,7 +5327,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="604895192"/>
+        <c:axId val="1817234032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5277,7 +5378,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="604894864"/>
+        <c:crossAx val="1817231312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5291,6 +5392,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5358,7 +5460,7 @@
 </file>
 
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -5397,6 +5499,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5494,21 +5597,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>184</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>121</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>188</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>69</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FED6-4446-AE39-5BA77CF8D4CF}"/>
             </c:ext>
@@ -5565,21 +5668,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>146</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>81</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>173</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FED6-4446-AE39-5BA77CF8D4CF}"/>
             </c:ext>
@@ -5595,11 +5698,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="603649840"/>
-        <c:axId val="603648200"/>
+        <c:axId val="1817235664"/>
+        <c:axId val="1817243824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="603649840"/>
+        <c:axId val="1817235664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5642,7 +5745,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="603648200"/>
+        <c:crossAx val="1817243824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5650,7 +5753,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="603648200"/>
+        <c:axId val="1817243824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5701,7 +5804,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="603649840"/>
+        <c:crossAx val="1817235664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5715,6 +5818,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5782,7 +5886,7 @@
 </file>
 
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -5821,6 +5925,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5926,39 +6031,39 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>602</c:v>
+                  <c:v>624</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>629</c:v>
+                  <c:v>498</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>706</c:v>
+                  <c:v>619</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>791</c:v>
+                  <c:v>461</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>545</c:v>
+                  <c:v>482</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>733</c:v>
+                  <c:v>748</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>777</c:v>
+                  <c:v>553</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>785</c:v>
+                  <c:v>682</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>714</c:v>
+                  <c:v>446</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>706</c:v>
+                  <c:v>697</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0B0F-4304-9919-33C7A8ADA6FD}"/>
             </c:ext>
@@ -6033,39 +6138,39 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>103</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>110</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>91</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>183</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>67</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>71</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>126</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>190</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>182</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0B0F-4304-9919-33C7A8ADA6FD}"/>
             </c:ext>
@@ -6140,39 +6245,39 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>168</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>154</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>203</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>116</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>128</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>206</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>210</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>57</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>210</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0B0F-4304-9919-33C7A8ADA6FD}"/>
             </c:ext>
@@ -6188,8 +6293,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="417964456"/>
-        <c:axId val="417962160"/>
+        <c:axId val="1817244912"/>
+        <c:axId val="1817246544"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6265,40 +6370,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.17109634551495018</c:v>
+                  <c:v>0.29006410256410259</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17488076311605724</c:v>
+                  <c:v>0.29317269076305219</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12889518413597734</c:v>
+                  <c:v>0.2197092084006462</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23135271807838179</c:v>
+                  <c:v>0.32537960954446854</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.12293577981651377</c:v>
+                  <c:v>0.41908713692946059</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.5497953615279671E-2</c:v>
+                  <c:v>0.13636363636363635</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.137709137709138E-2</c:v>
+                  <c:v>0.13381555153707053</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16050955414012738</c:v>
+                  <c:v>0.25219941348973607</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.26610644257703081</c:v>
+                  <c:v>0.14349775784753363</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.25779036827195467</c:v>
+                  <c:v>0.20659971305595409</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-0B0F-4304-9919-33C7A8ADA6FD}"/>
             </c:ext>
@@ -6375,40 +6480,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.27906976744186046</c:v>
+                  <c:v>0.11858974358974358</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24483306836248012</c:v>
+                  <c:v>0.41365461847389556</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28753541076487255</c:v>
+                  <c:v>0.22294022617124395</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14664981036662453</c:v>
+                  <c:v>0.39045553145336226</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.363302752293578</c:v>
+                  <c:v>0.41078838174273857</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17462482946793997</c:v>
+                  <c:v>0.21122994652406418</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.26512226512226511</c:v>
+                  <c:v>0.30198915009041594</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.26751592356687898</c:v>
+                  <c:v>0.17008797653958943</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.9831932773109238E-2</c:v>
+                  <c:v>0.3273542600896861</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.29745042492917845</c:v>
+                  <c:v>0.13055954088952654</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-0B0F-4304-9919-33C7A8ADA6FD}"/>
             </c:ext>
@@ -6424,11 +6529,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="607133088"/>
-        <c:axId val="607130792"/>
+        <c:axId val="1817871728"/>
+        <c:axId val="1817231856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="417964456"/>
+        <c:axId val="1817244912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6471,7 +6576,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="417962160"/>
+        <c:crossAx val="1817246544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6479,7 +6584,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="417962160"/>
+        <c:axId val="1817246544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6530,12 +6635,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="417964456"/>
+        <c:crossAx val="1817244912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="607130792"/>
+        <c:axId val="1817231856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6572,12 +6677,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="607133088"/>
+        <c:crossAx val="1817871728"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="607133088"/>
+        <c:axId val="1817871728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6587,7 +6692,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="607130792"/>
+        <c:crossAx val="1817231856"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -6603,6 +6709,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6634,14 +6741,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6677,7 +6784,7 @@
 </file>
 
 <file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -6716,6 +6823,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6829,39 +6937,39 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>689</c:v>
+                  <c:v>780</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>442</c:v>
+                  <c:v>565</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>556</c:v>
+                  <c:v>746</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>449</c:v>
+                  <c:v>575</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>776</c:v>
+                  <c:v>418</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>794</c:v>
+                  <c:v>586</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>788</c:v>
+                  <c:v>673</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>455</c:v>
+                  <c:v>673</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>436</c:v>
+                  <c:v>433</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>757</c:v>
+                  <c:v>694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6CD9-45C4-AEBE-8988196C4678}"/>
             </c:ext>
@@ -6935,39 +7043,39 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>637</c:v>
+                  <c:v>670</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>777</c:v>
+                  <c:v>413</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>422</c:v>
+                  <c:v>478</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>584</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>562</c:v>
+                  <c:v>656</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>687</c:v>
+                  <c:v>401</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>795</c:v>
+                  <c:v>617</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>544</c:v>
+                  <c:v>704</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>421</c:v>
+                  <c:v>769</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>615</c:v>
+                  <c:v>522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6CD9-45C4-AEBE-8988196C4678}"/>
             </c:ext>
@@ -6981,11 +7089,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="605075296"/>
-        <c:axId val="418573344"/>
+        <c:axId val="1817866832"/>
+        <c:axId val="1817879344"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="605075296"/>
+        <c:axId val="1817866832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7028,7 +7136,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="418573344"/>
+        <c:crossAx val="1817879344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7036,7 +7144,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="418573344"/>
+        <c:axId val="1817879344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7087,7 +7195,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="605075296"/>
+        <c:crossAx val="1817866832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7101,6 +7209,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7168,7 +7277,7 @@
 </file>
 
 <file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -7320,39 +7429,39 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>602</c:v>
+                  <c:v>624</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>629</c:v>
+                  <c:v>498</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>706</c:v>
+                  <c:v>619</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>791</c:v>
+                  <c:v>461</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>545</c:v>
+                  <c:v>482</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>733</c:v>
+                  <c:v>748</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>777</c:v>
+                  <c:v>553</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>785</c:v>
+                  <c:v>682</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>714</c:v>
+                  <c:v>446</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>706</c:v>
+                  <c:v>697</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1017-46C8-80DD-23E144BB4D92}"/>
             </c:ext>
@@ -7427,39 +7536,39 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>103</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>110</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>91</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>183</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>67</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>71</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>126</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>190</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>182</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1017-46C8-80DD-23E144BB4D92}"/>
             </c:ext>
@@ -7534,39 +7643,39 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>168</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>154</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>203</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>116</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>128</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>206</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>210</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>57</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>210</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-1017-46C8-80DD-23E144BB4D92}"/>
             </c:ext>
@@ -7581,11 +7690,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="701118144"/>
-        <c:axId val="701115192"/>
+        <c:axId val="1817880432"/>
+        <c:axId val="1817870640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="701118144"/>
+        <c:axId val="1817880432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7628,7 +7737,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="701115192"/>
+        <c:crossAx val="1817870640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7636,7 +7745,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="701115192"/>
+        <c:axId val="1817870640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7687,7 +7796,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="701118144"/>
+        <c:crossAx val="1817880432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7701,6 +7810,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7732,14 +7842,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7775,7 +7885,7 @@
 </file>
 
 <file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -7814,6 +7924,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7902,15 +8013,15 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6988</c:v>
+                  <c:v>5810</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1193</c:v>
+                  <c:v>1371</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8D64-40EE-9B6D-EB6871E41B32}"/>
             </c:ext>
@@ -7938,6 +8049,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7969,14 +8081,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8012,7 +8124,7 @@
 </file>
 
 <file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -8147,15 +8259,15 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6988</c:v>
+                  <c:v>5810</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1650</c:v>
+                  <c:v>1474</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8BB8-4795-8F8A-F3159350FFB0}"/>
             </c:ext>
@@ -8183,6 +8295,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8214,14 +8327,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8257,7 +8370,7 @@
 </file>
 
 <file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -8296,6 +8409,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8380,18 +8494,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>633</c:v>
+                  <c:v>610</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3D91-4EFE-8516-8C65D60EB6FF}"/>
             </c:ext>
@@ -8445,18 +8559,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>718</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>199</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3D91-4EFE-8516-8C65D60EB6FF}"/>
             </c:ext>
@@ -8472,11 +8586,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="418573016"/>
-        <c:axId val="524944696"/>
+        <c:axId val="1817869008"/>
+        <c:axId val="1817872816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="418573016"/>
+        <c:axId val="1817869008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8519,7 +8633,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524944696"/>
+        <c:crossAx val="1817872816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8527,7 +8641,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="524944696"/>
+        <c:axId val="1817872816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8578,7 +8692,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="418573016"/>
+        <c:crossAx val="1817869008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8592,6 +8706,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8659,7 +8774,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -8698,6 +8813,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8815,40 +8931,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>289</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>388</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>188</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>109</c:v>
+                  <c:v>348</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>323</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>143</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>264</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>103</c:v>
+                  <c:v>305</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>356</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>118</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9090-4DA5-93E2-10D9746169FA}"/>
             </c:ext>
@@ -8863,11 +8979,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="522956064"/>
-        <c:axId val="522956392"/>
+        <c:axId val="1809825760"/>
+        <c:axId val="1809815968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="522956064"/>
+        <c:axId val="1809825760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8910,7 +9026,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522956392"/>
+        <c:crossAx val="1809815968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8918,7 +9034,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="522956392"/>
+        <c:axId val="1809815968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8969,7 +9085,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522956064"/>
+        <c:crossAx val="1809825760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9019,7 +9135,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -9058,6 +9174,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9135,42 +9252,42 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>95</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>207</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>116</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>54</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>62</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1111</c:v>
+                  <c:v>1239</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1945-4C1F-A2C4-243099DB0473}"/>
             </c:ext>
@@ -9207,42 +9324,42 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>200</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>83</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>168</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>160</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>144</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>203</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>186</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>61</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>69</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1329</c:v>
+                  <c:v>1266</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1945-4C1F-A2C4-243099DB0473}"/>
             </c:ext>
@@ -9311,7 +9428,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-1945-4C1F-A2C4-243099DB0473}"/>
             </c:ext>
@@ -9326,11 +9443,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="418579744"/>
-        <c:axId val="418580072"/>
+        <c:axId val="1809818144"/>
+        <c:axId val="1809826848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="418579744"/>
+        <c:axId val="1809818144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9373,7 +9490,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="418580072"/>
+        <c:crossAx val="1809826848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9381,7 +9498,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="418580072"/>
+        <c:axId val="1809826848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9432,7 +9549,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="418579744"/>
+        <c:crossAx val="1809818144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9446,6 +9563,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9513,7 +9631,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -9552,6 +9670,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9640,15 +9759,15 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>132</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>730</c:v>
+                  <c:v>487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4CCA-44B2-98C5-FF2600794D2A}"/>
             </c:ext>
@@ -9675,6 +9794,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9742,7 +9862,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -9781,6 +9901,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9880,15 +10001,15 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>204</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>161</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B696-4A73-AC0B-96357C3B6132}"/>
             </c:ext>
@@ -9916,6 +10037,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9947,14 +10069,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -9990,7 +10112,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -10029,6 +10151,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10091,7 +10214,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-4FF4-4232-B759-0CB9F00AADFD}"/>
               </c:ext>
@@ -10111,7 +10234,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-4FF4-4232-B759-0CB9F00AADFD}"/>
               </c:ext>
@@ -10153,18 +10276,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>189</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>95</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-4FF4-4232-B759-0CB9F00AADFD}"/>
             </c:ext>
@@ -10192,6 +10315,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10223,14 +10347,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -10266,7 +10390,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -10305,6 +10429,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10404,15 +10529,15 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>205</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>152</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3C96-4AC4-B5A5-E76085E3B8D9}"/>
             </c:ext>
@@ -10440,6 +10565,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10471,14 +10597,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -10514,7 +10640,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -10553,6 +10679,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10652,15 +10779,15 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>146</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>112</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-773B-4A3D-8D72-FA7FCDA34D4C}"/>
             </c:ext>
@@ -10688,6 +10815,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10719,14 +10847,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -25663,7 +25791,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9BD8D6E-AFFF-4E61-BC71-8C548617855A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9BD8D6E-AFFF-4E61-BC71-8C548617855A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25699,7 +25827,7 @@
         <xdr:cNvPr id="8" name="图表 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163F245-FA6B-444C-8A0D-4AB64E15CCF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163F245-FA6B-444C-8A0D-4AB64E15CCF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25735,7 +25863,7 @@
         <xdr:cNvPr id="9" name="图表 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F82D587-133B-434F-97CD-EA0C08CE2ED0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7F82D587-133B-434F-97CD-EA0C08CE2ED0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25771,7 +25899,7 @@
         <xdr:cNvPr id="10" name="图表 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1942A1EC-FBD0-4992-A747-812B557662C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1942A1EC-FBD0-4992-A747-812B557662C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25807,7 +25935,7 @@
         <xdr:cNvPr id="12" name="图表 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{862B2CE2-40A3-4E0C-90DE-395F74A0DC5A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{862B2CE2-40A3-4E0C-90DE-395F74A0DC5A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25848,7 +25976,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A41974BE-89D3-4CE9-ACAC-0C7C268FB984}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A41974BE-89D3-4CE9-ACAC-0C7C268FB984}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25884,7 +26012,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CE043DC-3BE8-41F9-AEB7-F8A5BB8DCB4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3CE043DC-3BE8-41F9-AEB7-F8A5BB8DCB4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25922,7 +26050,7 @@
         <xdr:cNvPr id="5" name="图表 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7596004C-1EDA-4281-A3DC-69ADF1956960}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7596004C-1EDA-4281-A3DC-69ADF1956960}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25958,7 +26086,7 @@
         <xdr:cNvPr id="6" name="图表 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7498A1A7-9FC6-4F78-9CE4-142CA7A46C68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7498A1A7-9FC6-4F78-9CE4-142CA7A46C68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25994,7 +26122,7 @@
         <xdr:cNvPr id="7" name="图表 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C70C552F-0371-4CDA-97DF-CE74B920C690}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C70C552F-0371-4CDA-97DF-CE74B920C690}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26030,7 +26158,7 @@
         <xdr:cNvPr id="12" name="图表 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF0BF6C0-FE53-40C4-A5D0-6174669C402C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF0BF6C0-FE53-40C4-A5D0-6174669C402C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26066,7 +26194,7 @@
         <xdr:cNvPr id="13" name="图表 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58B507B8-AF97-4CB5-8D1C-D2AB74515ADA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{58B507B8-AF97-4CB5-8D1C-D2AB74515ADA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26102,7 +26230,7 @@
         <xdr:cNvPr id="14" name="图表 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87224C6D-49A3-465C-AA53-E2B50D4DB50D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87224C6D-49A3-465C-AA53-E2B50D4DB50D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26143,7 +26271,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77F4BABF-2B1E-4A5D-A971-AF7B4A3244C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{77F4BABF-2B1E-4A5D-A971-AF7B4A3244C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26181,7 +26309,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1870F66C-2255-4AE9-A73C-722B1648C2DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1870F66C-2255-4AE9-A73C-722B1648C2DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26219,7 +26347,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{141E3DBE-8B8A-48F3-B893-1183D0250A6A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{141E3DBE-8B8A-48F3-B893-1183D0250A6A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26257,7 +26385,7 @@
         <xdr:cNvPr id="5" name="图表 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B890472A-7D26-459E-9D2F-242516B2B32A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B890472A-7D26-459E-9D2F-242516B2B32A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26295,7 +26423,7 @@
         <xdr:cNvPr id="6" name="图表 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BD8DE96-522A-4E3C-B5CC-82F5BEFFCE05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5BD8DE96-522A-4E3C-B5CC-82F5BEFFCE05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26333,7 +26461,7 @@
         <xdr:cNvPr id="7" name="图表 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F50F3A4C-5F7B-4E1F-A29B-1CBC80575399}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F50F3A4C-5F7B-4E1F-A29B-1CBC80575399}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26371,7 +26499,7 @@
         <xdr:cNvPr id="8" name="图表 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF52BC23-A4CD-40F1-8048-8FE7DB626D7E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF52BC23-A4CD-40F1-8048-8FE7DB626D7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26409,7 +26537,7 @@
         <xdr:cNvPr id="9" name="图表 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0CBDFA5-11CA-4B96-9E9B-B7BB1B0F0F97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D0CBDFA5-11CA-4B96-9E9B-B7BB1B0F0F97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26452,7 +26580,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{267BB223-E3D5-469F-BBDE-032AF6F1E664}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{267BB223-E3D5-469F-BBDE-032AF6F1E664}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26488,7 +26616,7 @@
         <xdr:cNvPr id="5" name="图表 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F85BB0F-E5A3-4D0E-9379-8D9F7574555F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0F85BB0F-E5A3-4D0E-9379-8D9F7574555F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26524,7 +26652,7 @@
         <xdr:cNvPr id="8" name="图表 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{498F33F4-8863-4A6B-A5BF-A6E62B524AD9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{498F33F4-8863-4A6B-A5BF-A6E62B524AD9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26560,7 +26688,7 @@
         <xdr:cNvPr id="9" name="图表 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE9AEC35-6774-4A8F-A80A-C2D0A5526D7E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE9AEC35-6774-4A8F-A80A-C2D0A5526D7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26596,7 +26724,7 @@
         <xdr:cNvPr id="10" name="图表 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{723109D0-4A27-4856-9F08-C53082F5A28E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{723109D0-4A27-4856-9F08-C53082F5A28E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26632,7 +26760,7 @@
         <xdr:cNvPr id="11" name="图表 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF7402BD-9F92-4B34-BACA-E83AAD98BA1A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EF7402BD-9F92-4B34-BACA-E83AAD98BA1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26949,11 +27077,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{979263F8-61B5-43C5-8474-C2614CB0ED2F}">
-  <dimension ref="B1:K15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:K49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -26997,29 +27125,29 @@
       </c>
       <c r="C5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="D5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
       </c>
       <c r="G5">
         <f ca="1">RANDBETWEEN(100,400)</f>
-        <v>132</v>
+        <v>280</v>
       </c>
       <c r="H5">
         <f ca="1">RANDBETWEEN(300,800)</f>
-        <v>730</v>
+        <v>487</v>
       </c>
       <c r="J5">
         <v>2010</v>
       </c>
       <c r="K5">
         <f ca="1">RANDBETWEEN(100,400)</f>
-        <v>289</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
@@ -27028,11 +27156,11 @@
       </c>
       <c r="C6">
         <f t="shared" ref="C6:D14" ca="1" si="0">RANDBETWEEN(50,210)</f>
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
@@ -27051,11 +27179,11 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>168</v>
+        <v>84</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -27065,7 +27193,7 @@
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="1"/>
-        <v>188</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
@@ -27074,11 +27202,11 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
@@ -27088,7 +27216,7 @@
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="1"/>
-        <v>109</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
@@ -27097,11 +27225,11 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>146</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>204</v>
       </c>
       <c r="E9" t="s">
         <v>21</v>
@@ -27111,7 +27239,7 @@
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="1"/>
-        <v>323</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
@@ -27120,11 +27248,11 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>208</v>
+        <v>131</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="E10" t="s">
         <v>22</v>
@@ -27134,7 +27262,7 @@
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="1"/>
-        <v>143</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
@@ -27143,11 +27271,11 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>116</v>
+        <v>207</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="E11" t="s">
         <v>23</v>
@@ -27157,7 +27285,7 @@
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="1"/>
-        <v>264</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
@@ -27166,11 +27294,11 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E12" t="s">
         <v>24</v>
@@ -27180,7 +27308,7 @@
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="1"/>
-        <v>103</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
@@ -27189,11 +27317,11 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>195</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
         <v>25</v>
@@ -27203,7 +27331,7 @@
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="1"/>
-        <v>356</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
@@ -27212,11 +27340,11 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>164</v>
       </c>
       <c r="E14" t="s">
         <v>26</v>
@@ -27226,20 +27354,50 @@
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="1"/>
-        <v>118</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C15">
         <f ca="1">SUM(C5:C14)</f>
-        <v>1111</v>
+        <v>1239</v>
       </c>
       <c r="D15">
         <f ca="1">SUM(D5:D14)</f>
-        <v>1329</v>
+        <v>1266</v>
       </c>
       <c r="E15" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -27250,11 +27408,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6041A90-E63B-4212-B076-9A0CEB0C71C1}">
-  <dimension ref="B1:P18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:P55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -27304,45 +27462,45 @@
       </c>
       <c r="C5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="D5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="E5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="F5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="I5" t="s">
         <v>4</v>
       </c>
       <c r="J5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="L5">
         <f ca="1">J5/K5</f>
-        <v>1.0540540540540539</v>
+        <v>0.72131147540983609</v>
       </c>
       <c r="N5" t="s">
         <v>33</v>
       </c>
       <c r="O5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="P5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>84</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
@@ -27350,46 +27508,46 @@
         <v>34</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:E9" ca="1" si="0">RANDBETWEEN(50,210)</f>
-        <v>95</v>
+        <f t="shared" ref="C6:E8" ca="1" si="0">RANDBETWEEN(50,210)</f>
+        <v>149</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>204</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="F6">
         <f ca="1">F5*0.3</f>
-        <v>34.799999999999997</v>
+        <v>44.4</v>
       </c>
       <c r="I6" t="s">
         <v>5</v>
       </c>
       <c r="J6">
         <f t="shared" ref="J6:K14" ca="1" si="1">RANDBETWEEN(50,210)</f>
-        <v>112</v>
+        <v>180</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="1"/>
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="L6">
         <f t="shared" ref="L6:L14" ca="1" si="2">J6/K6</f>
-        <v>0.5714285714285714</v>
+        <v>1.0843373493975903</v>
       </c>
       <c r="N6" t="s">
         <v>32</v>
       </c>
       <c r="O6">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="P6">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>200</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
@@ -27398,34 +27556,34 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>205</v>
+        <v>72</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>208</v>
+        <v>124</v>
       </c>
       <c r="F7">
         <f ca="1">F6*0.2</f>
-        <v>6.96</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="I7" t="s">
         <v>6</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="1"/>
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="1"/>
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0547945205479452</v>
+        <v>1.3006993006993006</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
@@ -27434,59 +27592,59 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>146</v>
+        <v>57</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>112</v>
+        <v>191</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="F8">
         <f ca="1">F7*0.5</f>
-        <v>3.48</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="I8" t="s">
         <v>7</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="1"/>
-        <v>199</v>
+        <v>152</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="2"/>
-        <v>2.139784946236559</v>
+        <v>1.4339622641509433</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C9">
         <f ca="1">SUM(C5:C8)</f>
-        <v>650</v>
+        <v>469</v>
       </c>
       <c r="D9">
         <f ca="1">SUM(D5:D8)</f>
-        <v>475</v>
+        <v>693</v>
       </c>
       <c r="I9" t="s">
         <v>8</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="1"/>
-        <v>159</v>
+        <v>87</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="2"/>
-        <v>2.8392857142857144</v>
+        <v>0.74358974358974361</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
@@ -27495,15 +27653,15 @@
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="1"/>
-        <v>189</v>
+        <v>93</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="1"/>
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="2"/>
-        <v>1.2115384615384615</v>
+        <v>0.95876288659793818</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
@@ -27512,15 +27670,15 @@
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="1"/>
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="2"/>
-        <v>2.5</v>
+        <v>1.4962406015037595</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
@@ -27529,15 +27687,15 @@
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="1"/>
-        <v>199</v>
+        <v>118</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>162</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="2"/>
-        <v>2.1170212765957448</v>
+        <v>0.72839506172839508</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
@@ -27546,15 +27704,15 @@
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="1"/>
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="1"/>
-        <v>126</v>
+        <v>205</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="2"/>
-        <v>1.2063492063492063</v>
+        <v>0.89268292682926831</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
@@ -27563,15 +27721,15 @@
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="1"/>
-        <v>170</v>
+        <v>113</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="1"/>
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.90909090909090906</v>
+        <v>0.57070707070707072</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
@@ -27579,19 +27737,35 @@
         <v>38</v>
       </c>
     </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A98A210-5AC4-430B-87DB-A06ED6D90ABC}">
-  <dimension ref="B1:P18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:P53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B2"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -27641,45 +27815,45 @@
       </c>
       <c r="C5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="D5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>184</v>
+        <v>112</v>
       </c>
       <c r="E5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="F5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="I5" t="s">
         <v>4</v>
       </c>
       <c r="J5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="K5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="L5">
         <f ca="1">J5/K5</f>
-        <v>0.6785714285714286</v>
+        <v>1.3884297520661157</v>
       </c>
       <c r="N5" t="s">
         <v>33</v>
       </c>
       <c r="O5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>58</v>
+        <v>186</v>
       </c>
       <c r="P5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>176</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
@@ -27687,46 +27861,46 @@
         <v>34</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:E9" ca="1" si="0">RANDBETWEEN(50,210)</f>
-        <v>139</v>
+        <f t="shared" ref="C6:E8" ca="1" si="0">RANDBETWEEN(50,210)</f>
+        <v>194</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>121</v>
+        <v>194</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="F6">
         <f ca="1">F5*0.3</f>
-        <v>46.199999999999996</v>
+        <v>59.4</v>
       </c>
       <c r="I6" t="s">
         <v>5</v>
       </c>
       <c r="J6">
         <f t="shared" ref="J6:K14" ca="1" si="1">RANDBETWEEN(50,210)</f>
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="1"/>
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="L6">
         <f t="shared" ref="L6:L14" ca="1" si="2">J6/K6</f>
-        <v>1.2086330935251799</v>
+        <v>0.6402439024390244</v>
       </c>
       <c r="N6" t="s">
         <v>32</v>
       </c>
       <c r="O6">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="P6">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
@@ -27735,34 +27909,34 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="F7">
         <f ca="1">F6*0.2</f>
-        <v>9.24</v>
+        <v>11.88</v>
       </c>
       <c r="I7" t="s">
         <v>6</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>201</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="1"/>
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.52906976744186052</v>
+        <v>3.2950819672131146</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
@@ -27771,59 +27945,59 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>145</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="F8">
         <f ca="1">F7*0.5</f>
-        <v>4.62</v>
+        <v>5.94</v>
       </c>
       <c r="I8" t="s">
         <v>7</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="1"/>
-        <v>167</v>
+        <v>85</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>208</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="2"/>
-        <v>2.5303030303030303</v>
+        <v>0.40865384615384615</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C9">
         <f ca="1">SUM(C5:C8)</f>
-        <v>505</v>
+        <v>592</v>
       </c>
       <c r="D9">
         <f ca="1">SUM(D5:D8)</f>
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="I9" t="s">
         <v>8</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>165</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="2"/>
-        <v>0.61052631578947369</v>
+        <v>1.9879518072289157</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
@@ -27832,15 +28006,15 @@
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>204</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0813953488372092</v>
+        <v>0.63725490196078427</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
@@ -27849,15 +28023,15 @@
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="1"/>
-        <v>157</v>
+        <v>104</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="1"/>
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0608108108108107</v>
+        <v>0.51231527093596063</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
@@ -27866,15 +28040,15 @@
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="1"/>
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="2"/>
-        <v>2.6103896103896105</v>
+        <v>0.99009900990099009</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
@@ -27883,15 +28057,15 @@
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="1"/>
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="1"/>
-        <v>191</v>
+        <v>71</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7120418848167539</v>
+        <v>1.7746478873239437</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
@@ -27900,20 +28074,30 @@
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="1"/>
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>202</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="2"/>
-        <v>2.3076923076923075</v>
+        <v>0.48514851485148514</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -27924,11 +28108,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EF09979-98DD-47E3-A2A7-AA98E1FF0612}">
-  <dimension ref="A1:M14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B2"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -27981,42 +28165,42 @@
       </c>
       <c r="C4">
         <f ca="1">RANDBETWEEN(400,810)</f>
-        <v>602</v>
+        <v>624</v>
       </c>
       <c r="D4">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="E4">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="F4">
         <f ca="1">D4/C4</f>
-        <v>0.17109634551495018</v>
+        <v>0.29006410256410259</v>
       </c>
       <c r="G4">
         <f ca="1">E4/C4</f>
-        <v>0.27906976744186046</v>
+        <v>0.11858974358974358</v>
       </c>
       <c r="H4">
         <f ca="1">RANDBETWEEN(400,810)</f>
-        <v>689</v>
+        <v>780</v>
       </c>
       <c r="I4">
         <f ca="1">RANDBETWEEN(400,810)</f>
-        <v>637</v>
+        <v>670</v>
       </c>
       <c r="K4" t="s">
         <v>49</v>
       </c>
       <c r="L4">
         <f ca="1">RANDBETWEEN(400,810)</f>
-        <v>633</v>
+        <v>610</v>
       </c>
       <c r="M4">
         <f ca="1">RANDBETWEEN(400,810)</f>
-        <v>718</v>
+        <v>480</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -28028,42 +28212,42 @@
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C13" ca="1" si="0">RANDBETWEEN(400,810)</f>
-        <v>629</v>
+        <v>498</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="C5:E13" ca="1" si="1">RANDBETWEEN(50,210)</f>
-        <v>110</v>
+        <f t="shared" ref="D5:E13" ca="1" si="1">RANDBETWEEN(50,210)</f>
+        <v>146</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>154</v>
+        <v>206</v>
       </c>
       <c r="F5">
         <f t="shared" ref="F5:F13" ca="1" si="2">D5/C5</f>
-        <v>0.17488076311605724</v>
+        <v>0.29317269076305219</v>
       </c>
       <c r="G5">
         <f t="shared" ref="G5:G13" ca="1" si="3">E5/C5</f>
-        <v>0.24483306836248012</v>
+        <v>0.41365461847389556</v>
       </c>
       <c r="H5">
         <f t="shared" ref="H5:I13" ca="1" si="4">RANDBETWEEN(400,810)</f>
-        <v>442</v>
+        <v>565</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="4"/>
-        <v>777</v>
+        <v>413</v>
       </c>
       <c r="K5" t="s">
         <v>50</v>
       </c>
       <c r="L5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="M5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -28075,42 +28259,42 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>706</v>
+        <v>619</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>203</v>
+        <v>138</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12889518413597734</v>
+        <v>0.2197092084006462</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28753541076487255</v>
+        <v>0.22294022617124395</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="4"/>
-        <v>556</v>
+        <v>746</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="4"/>
-        <v>422</v>
+        <v>478</v>
       </c>
       <c r="K6" t="s">
         <v>51</v>
       </c>
       <c r="L6">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="M6">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>199</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -28122,31 +28306,31 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>791</v>
+        <v>461</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.23135271807838179</v>
+        <v>0.32537960954446854</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14664981036662453</v>
+        <v>0.39045553145336226</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="4"/>
-        <v>449</v>
+        <v>575</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="4"/>
-        <v>584</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -28158,11 +28342,11 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>545</v>
+        <v>482</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>202</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
@@ -28170,19 +28354,19 @@
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12293577981651377</v>
+        <v>0.41908713692946059</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.363302752293578</v>
+        <v>0.41078838174273857</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="4"/>
-        <v>776</v>
+        <v>418</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="4"/>
-        <v>562</v>
+        <v>656</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -28194,31 +28378,31 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>733</v>
+        <v>748</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="1"/>
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="2"/>
-        <v>9.5497953615279671E-2</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="3"/>
-        <v>0.17462482946793997</v>
+        <v>0.21122994652406418</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="4"/>
-        <v>794</v>
+        <v>586</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="4"/>
-        <v>687</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -28230,31 +28414,31 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>777</v>
+        <v>553</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="1"/>
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="2"/>
-        <v>9.137709137709138E-2</v>
+        <v>0.13381555153707053</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26512226512226511</v>
+        <v>0.30198915009041594</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="4"/>
-        <v>788</v>
+        <v>673</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="4"/>
-        <v>795</v>
+        <v>617</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -28266,31 +28450,31 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>785</v>
+        <v>682</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="1"/>
-        <v>210</v>
+        <v>116</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16050955414012738</v>
+        <v>0.25219941348973607</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26751592356687898</v>
+        <v>0.17008797653958943</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="4"/>
-        <v>455</v>
+        <v>673</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="4"/>
-        <v>544</v>
+        <v>704</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -28302,31 +28486,31 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>714</v>
+        <v>446</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
-        <v>190</v>
+        <v>64</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="2"/>
-        <v>0.26610644257703081</v>
+        <v>0.14349775784753363</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="3"/>
-        <v>7.9831932773109238E-2</v>
+        <v>0.3273542600896861</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="4"/>
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="4"/>
-        <v>421</v>
+        <v>769</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -28338,48 +28522,53 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="1"/>
-        <v>210</v>
+        <v>91</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25779036827195467</v>
+        <v>0.20659971305595409</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="3"/>
-        <v>0.29745042492917845</v>
+        <v>0.13055954088952654</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="4"/>
-        <v>757</v>
+        <v>694</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="4"/>
-        <v>615</v>
+        <v>522</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14">
         <f ca="1">SUM(C4:C13)</f>
-        <v>6988</v>
+        <v>5810</v>
       </c>
       <c r="D14">
         <f t="shared" ref="D14:E14" ca="1" si="5">SUM(D4:D13)</f>
-        <v>1193</v>
+        <v>1371</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="5"/>
-        <v>1650</v>
+        <v>1474</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
